--- a/Informacion Adicional/Hackaton_2021_Base_Concursantes_v1.xlsx
+++ b/Informacion Adicional/Hackaton_2021_Base_Concursantes_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CoE\Eventos\Hackaton\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfran\Desktop\-HACKTUARIOS-\Informacion Adicional\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A65FC-C457-49B1-A8EF-0B0DDD289AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen_Bases" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Diccionario Datos'!$A$1:$E$104</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="215">
   <si>
     <t>Sociodemográficos</t>
   </si>
@@ -651,12 +663,60 @@
   <si>
     <t>Esta estructura al tener información a nivel "Periodo/Cliente"; usa el identificador "PERIODO + CODIGO_CLIENTE".</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Ahorrador</t>
+  </si>
+  <si>
+    <t>Debito</t>
+  </si>
+  <si>
+    <t>Compensación por Tiempo de Servicio, apoyo social a trabajadores 'metodo de ahorro'</t>
+  </si>
+  <si>
+    <t>prestamos</t>
+  </si>
+  <si>
+    <t>saldo en contra tar. Credito</t>
+  </si>
+  <si>
+    <t>hipoteca</t>
+  </si>
+  <si>
+    <t>ventas creditos que el banco da en efectivo como "adelanto"</t>
+  </si>
+  <si>
+    <t>credito para activo fijo</t>
+  </si>
+  <si>
+    <t>saldo en contra tar. Credito empresarial</t>
+  </si>
+  <si>
+    <t>inversion</t>
+  </si>
+  <si>
+    <t>/3</t>
+  </si>
+  <si>
+    <t>!=0 -&gt; 1 else 0</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -667,39 +727,46 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -715,8 +782,61 @@
       <sz val="11"/>
       <name val="Docs-Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,8 +903,62 @@
         <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -857,11 +1031,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,6 +1148,27 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,24 +1384,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="73.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="73.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="72.54296875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1420,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51">
+    <row r="2" spans="1:5" ht="50">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1220,7 +1437,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="50">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1237,7 +1454,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="63.75">
+    <row r="4" spans="1:5" ht="62.5">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1254,7 +1471,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="38.25">
+    <row r="5" spans="1:5" ht="37.5">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1271,7 +1488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51">
+    <row r="6" spans="1:5" ht="50">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1288,7 +1505,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63.75">
+    <row r="7" spans="1:5" ht="62.5">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1305,7 +1522,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="63.75">
+    <row r="8" spans="1:5" ht="63">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1328,26 +1545,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
+    <row r="1" spans="1:21" ht="14.5">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +1581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30">
+    <row r="2" spans="1:21" ht="14.5">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1379,7 +1596,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:21" ht="15">
+    <row r="3" spans="1:21" ht="14.5">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -1394,7 +1611,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" ht="14.5">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1411,7 +1628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21" ht="14.5">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -1426,7 +1643,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:21" ht="14.5">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -1441,7 +1658,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:21" ht="30">
+    <row r="7" spans="1:21" ht="29">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -1458,7 +1675,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
+    <row r="8" spans="1:21" ht="14.5">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -1473,7 +1690,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:21" ht="45">
+    <row r="9" spans="1:21" ht="60.5">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1487,8 +1704,9 @@
         <v>106</v>
       </c>
       <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:21" ht="75">
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:21" ht="119" customHeight="1">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -1504,8 +1722,9 @@
       <c r="E10" s="17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15">
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:21" ht="30">
       <c r="A11" s="15">
         <v>1</v>
       </c>
@@ -1519,8 +1738,11 @@
         <v>108</v>
       </c>
       <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" ht="15">
+      <c r="G11" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="30">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -1534,8 +1756,11 @@
         <v>109</v>
       </c>
       <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" ht="15">
+      <c r="G12" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.5">
       <c r="A13" s="15">
         <v>1</v>
       </c>
@@ -1550,7 +1775,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:21" ht="14.5">
       <c r="A14" s="15">
         <v>1</v>
       </c>
@@ -1565,7 +1790,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21" ht="14.5">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -1579,7 +1804,7 @@
         <v>112</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1596,7 +1821,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21" ht="14.5">
       <c r="A16" s="15">
         <v>1</v>
       </c>
@@ -1610,7 +1835,7 @@
         <v>113</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1627,7 +1852,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21" ht="14.5">
       <c r="A17" s="15">
         <v>1</v>
       </c>
@@ -1641,7 +1866,7 @@
         <v>114</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1658,7 +1883,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21" ht="14.5">
       <c r="A18" s="15">
         <v>1</v>
       </c>
@@ -1672,7 +1897,7 @@
         <v>115</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1689,7 +1914,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="30">
+    <row r="19" spans="1:21" ht="14.5">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -1704,7 +1929,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21" ht="14.5">
       <c r="A20" s="18">
         <v>2</v>
       </c>
@@ -1719,7 +1944,7 @@
       </c>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21" ht="14.5">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -1736,7 +1961,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21" ht="14.5">
       <c r="A22" s="18">
         <v>2</v>
       </c>
@@ -1751,7 +1976,7 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21" ht="14.5">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -1766,7 +1991,7 @@
       </c>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="14.5">
       <c r="A24" s="18">
         <v>2</v>
       </c>
@@ -1781,7 +2006,7 @@
       </c>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="14.5">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -1796,7 +2021,7 @@
       </c>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="14.5">
       <c r="A26" s="18">
         <v>2</v>
       </c>
@@ -1827,7 +2052,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="14.5">
       <c r="A27" s="18">
         <v>2</v>
       </c>
@@ -1858,7 +2083,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="1:21" ht="30">
+    <row r="28" spans="1:21" ht="32.5">
       <c r="A28" s="22">
         <v>3</v>
       </c>
@@ -1872,8 +2097,9 @@
         <v>98</v>
       </c>
       <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="1:21" ht="15">
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:21" ht="32.5">
       <c r="A29" s="22">
         <v>3</v>
       </c>
@@ -1887,8 +2113,9 @@
         <v>99</v>
       </c>
       <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="1:21" ht="15">
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="1:21" ht="32.5">
       <c r="A30" s="22">
         <v>3</v>
       </c>
@@ -1904,8 +2131,9 @@
       <c r="E30" s="23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15">
+      <c r="G30" s="50"/>
+    </row>
+    <row r="31" spans="1:21" ht="32.5">
       <c r="A31" s="22">
         <v>3</v>
       </c>
@@ -1919,8 +2147,9 @@
         <v>101</v>
       </c>
       <c r="E31" s="23"/>
-    </row>
-    <row r="32" spans="1:21" ht="60">
+      <c r="G31" s="50"/>
+    </row>
+    <row r="32" spans="1:21" ht="58">
       <c r="A32" s="22">
         <v>3</v>
       </c>
@@ -1933,9 +2162,17 @@
       <c r="D32" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="1:5" ht="60">
+      <c r="E32" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="58">
       <c r="A33" s="22">
         <v>3</v>
       </c>
@@ -1948,9 +2185,17 @@
       <c r="D33" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" ht="45">
+      <c r="E33" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="46">
       <c r="A34" s="22">
         <v>3</v>
       </c>
@@ -1963,9 +2208,17 @@
       <c r="D34" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" ht="60">
+      <c r="E34" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="46">
       <c r="A35" s="22">
         <v>3</v>
       </c>
@@ -1978,9 +2231,21 @@
       <c r="D35" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="1:5" ht="60">
+      <c r="E35" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="58">
       <c r="A36" s="22">
         <v>3</v>
       </c>
@@ -1993,9 +2258,17 @@
       <c r="D36" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="1:5" ht="60">
+      <c r="E36" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="58">
       <c r="A37" s="22">
         <v>3</v>
       </c>
@@ -2008,9 +2281,17 @@
       <c r="D37" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="1:5" ht="60">
+      <c r="E37" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="58">
       <c r="A38" s="22">
         <v>3</v>
       </c>
@@ -2023,9 +2304,17 @@
       <c r="D38" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="1:5" ht="75">
+      <c r="E38" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="58">
       <c r="A39" s="22">
         <v>3</v>
       </c>
@@ -2038,9 +2327,17 @@
       <c r="D39" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="1:5" ht="60">
+      <c r="E39" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="58">
       <c r="A40" s="22">
         <v>3</v>
       </c>
@@ -2053,9 +2350,17 @@
       <c r="D40" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="23"/>
-    </row>
-    <row r="41" spans="1:5" ht="60">
+      <c r="E40" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="58">
       <c r="A41" s="22">
         <v>3</v>
       </c>
@@ -2068,9 +2373,17 @@
       <c r="D41" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" ht="60">
+      <c r="E41" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="58">
       <c r="A42" s="22">
         <v>3</v>
       </c>
@@ -2083,9 +2396,17 @@
       <c r="D42" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="1:5" ht="60">
+      <c r="E42" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="58">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -2098,9 +2419,17 @@
       <c r="D43" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="1:5" ht="60">
+      <c r="E43" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="58">
       <c r="A44" s="22">
         <v>3</v>
       </c>
@@ -2113,9 +2442,17 @@
       <c r="D44" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="23"/>
-    </row>
-    <row r="45" spans="1:5" ht="75">
+      <c r="E44" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="72.5">
       <c r="A45" s="22">
         <v>3</v>
       </c>
@@ -2128,9 +2465,17 @@
       <c r="D45" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="23"/>
-    </row>
-    <row r="46" spans="1:5" ht="45">
+      <c r="E45" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="43.5">
       <c r="A46" s="22">
         <v>3</v>
       </c>
@@ -2144,8 +2489,12 @@
         <v>136</v>
       </c>
       <c r="E46" s="23"/>
-    </row>
-    <row r="47" spans="1:5" ht="45">
+      <c r="F46" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:11" ht="43.5">
       <c r="A47" s="22">
         <v>3</v>
       </c>
@@ -2159,8 +2508,12 @@
         <v>137</v>
       </c>
       <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="1:5" ht="45">
+      <c r="F47" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:11" ht="43.5">
       <c r="A48" s="22">
         <v>3</v>
       </c>
@@ -2174,8 +2527,12 @@
         <v>138</v>
       </c>
       <c r="E48" s="23"/>
-    </row>
-    <row r="49" spans="1:5" ht="45">
+      <c r="F48" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="1:7" ht="43.5">
       <c r="A49" s="22">
         <v>3</v>
       </c>
@@ -2189,8 +2546,12 @@
         <v>139</v>
       </c>
       <c r="E49" s="23"/>
-    </row>
-    <row r="50" spans="1:5" ht="45">
+      <c r="F49" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G49" s="52"/>
+    </row>
+    <row r="50" spans="1:7" ht="43.5">
       <c r="A50" s="22">
         <v>3</v>
       </c>
@@ -2204,8 +2565,12 @@
         <v>140</v>
       </c>
       <c r="E50" s="23"/>
-    </row>
-    <row r="51" spans="1:5" ht="45">
+      <c r="F50" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="1:7" ht="43.5">
       <c r="A51" s="22">
         <v>3</v>
       </c>
@@ -2219,8 +2584,12 @@
         <v>141</v>
       </c>
       <c r="E51" s="23"/>
-    </row>
-    <row r="52" spans="1:5" ht="30">
+      <c r="F51" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" s="52"/>
+    </row>
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="22">
         <v>3</v>
       </c>
@@ -2236,8 +2605,12 @@
       <c r="E52" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="30">
+      <c r="F52" s="42"/>
+      <c r="G52" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="22">
         <v>3</v>
       </c>
@@ -2253,8 +2626,12 @@
       <c r="E53" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="30">
+      <c r="F53" s="42"/>
+      <c r="G53" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="22">
         <v>3</v>
       </c>
@@ -2270,8 +2647,12 @@
       <c r="E54" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="30">
+      <c r="F54" s="42"/>
+      <c r="G54" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" s="22">
         <v>3</v>
       </c>
@@ -2287,8 +2668,12 @@
       <c r="E55" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="30">
+      <c r="F55" s="42"/>
+      <c r="G55" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" s="22">
         <v>3</v>
       </c>
@@ -2304,8 +2689,12 @@
       <c r="E56" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="30">
+      <c r="F56" s="42"/>
+      <c r="G56" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30">
       <c r="A57" s="22">
         <v>3</v>
       </c>
@@ -2321,8 +2710,12 @@
       <c r="E57" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15">
+      <c r="F57" s="42"/>
+      <c r="G57" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.5">
       <c r="A58" s="22">
         <v>3</v>
       </c>
@@ -2335,9 +2728,9 @@
       <c r="D58" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E58" s="23"/>
-    </row>
-    <row r="59" spans="1:5" ht="30">
+      <c r="E58" s="45"/>
+    </row>
+    <row r="59" spans="1:7" ht="29">
       <c r="A59" s="22">
         <v>3</v>
       </c>
@@ -2350,9 +2743,9 @@
       <c r="D59" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="23"/>
-    </row>
-    <row r="60" spans="1:5" ht="30">
+      <c r="E59" s="45"/>
+    </row>
+    <row r="60" spans="1:7" ht="60.5">
       <c r="A60" s="22">
         <v>3</v>
       </c>
@@ -2368,8 +2761,11 @@
       <c r="E60" s="24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="30">
+      <c r="F60" s="41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60.5">
       <c r="A61" s="22">
         <v>3</v>
       </c>
@@ -2385,8 +2781,11 @@
       <c r="E61" s="24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="30">
+      <c r="F61" s="41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.5">
       <c r="A62" s="28">
         <v>4</v>
       </c>
@@ -2401,7 +2800,7 @@
       </c>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" ht="15">
+    <row r="63" spans="1:7" ht="14.5">
       <c r="A63" s="28">
         <v>4</v>
       </c>
@@ -2416,7 +2815,7 @@
       </c>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="1:5" ht="45">
+    <row r="64" spans="1:7" ht="29">
       <c r="A64" s="28">
         <v>4</v>
       </c>
@@ -2431,7 +2830,7 @@
       </c>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" ht="45">
+    <row r="65" spans="1:6" ht="43.5">
       <c r="A65" s="28">
         <v>4</v>
       </c>
@@ -2446,7 +2845,7 @@
       </c>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="1:5" ht="45">
+    <row r="66" spans="1:6" ht="43.5">
       <c r="A66" s="28">
         <v>4</v>
       </c>
@@ -2460,8 +2859,11 @@
         <v>156</v>
       </c>
       <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:5" ht="60">
+      <c r="F66" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="58">
       <c r="A67" s="28">
         <v>4</v>
       </c>
@@ -2475,8 +2877,11 @@
         <v>157</v>
       </c>
       <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="1:5" ht="60">
+      <c r="F67" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="58">
       <c r="A68" s="28">
         <v>4</v>
       </c>
@@ -2491,7 +2896,7 @@
       </c>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" ht="60">
+    <row r="69" spans="1:6" ht="58">
       <c r="A69" s="28">
         <v>4</v>
       </c>
@@ -2505,8 +2910,11 @@
         <v>159</v>
       </c>
       <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5" ht="30">
+      <c r="F69" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29">
       <c r="A70" s="28">
         <v>4</v>
       </c>
@@ -2520,8 +2928,9 @@
         <v>160</v>
       </c>
       <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" ht="30">
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71" spans="1:6" ht="29">
       <c r="A71" s="28">
         <v>4</v>
       </c>
@@ -2535,8 +2944,9 @@
         <v>161</v>
       </c>
       <c r="E71" s="14"/>
-    </row>
-    <row r="72" spans="1:5" ht="90">
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="1:6" ht="72.5">
       <c r="A72" s="28">
         <v>4</v>
       </c>
@@ -2550,8 +2960,9 @@
         <v>162</v>
       </c>
       <c r="E72" s="30"/>
-    </row>
-    <row r="73" spans="1:5" ht="30">
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.5">
       <c r="A73" s="31">
         <v>5</v>
       </c>
@@ -2566,7 +2977,7 @@
       </c>
       <c r="E73" s="32"/>
     </row>
-    <row r="74" spans="1:5" ht="15">
+    <row r="74" spans="1:6" ht="14.5">
       <c r="A74" s="31">
         <v>5</v>
       </c>
@@ -2581,7 +2992,7 @@
       </c>
       <c r="E74" s="32"/>
     </row>
-    <row r="75" spans="1:5" ht="105">
+    <row r="75" spans="1:6" ht="87">
       <c r="A75" s="31">
         <v>5</v>
       </c>
@@ -2598,7 +3009,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30">
+    <row r="76" spans="1:6" ht="29">
       <c r="A76" s="31">
         <v>5</v>
       </c>
@@ -2615,7 +3026,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="45">
+    <row r="77" spans="1:6" ht="29">
       <c r="A77" s="31">
         <v>5</v>
       </c>
@@ -2630,7 +3041,7 @@
       </c>
       <c r="E77" s="32"/>
     </row>
-    <row r="78" spans="1:5" ht="45">
+    <row r="78" spans="1:6" ht="43.5">
       <c r="A78" s="31">
         <v>5</v>
       </c>
@@ -2645,7 +3056,7 @@
       </c>
       <c r="E78" s="32"/>
     </row>
-    <row r="79" spans="1:5" ht="45">
+    <row r="79" spans="1:6" ht="43.5">
       <c r="A79" s="31">
         <v>5</v>
       </c>
@@ -2660,7 +3071,7 @@
       </c>
       <c r="E79" s="32"/>
     </row>
-    <row r="80" spans="1:5" ht="60">
+    <row r="80" spans="1:6" ht="58">
       <c r="A80" s="31">
         <v>5</v>
       </c>
@@ -2675,7 +3086,7 @@
       </c>
       <c r="E80" s="32"/>
     </row>
-    <row r="81" spans="1:5" ht="60">
+    <row r="81" spans="1:6" ht="58">
       <c r="A81" s="31">
         <v>5</v>
       </c>
@@ -2690,7 +3101,7 @@
       </c>
       <c r="E81" s="32"/>
     </row>
-    <row r="82" spans="1:5" ht="60">
+    <row r="82" spans="1:6" ht="58">
       <c r="A82" s="31">
         <v>5</v>
       </c>
@@ -2704,8 +3115,9 @@
         <v>159</v>
       </c>
       <c r="E82" s="32"/>
-    </row>
-    <row r="83" spans="1:5" ht="30">
+      <c r="F82" s="42"/>
+    </row>
+    <row r="83" spans="1:6" ht="29">
       <c r="A83" s="31">
         <v>5</v>
       </c>
@@ -2719,8 +3131,9 @@
         <v>160</v>
       </c>
       <c r="E83" s="32"/>
-    </row>
-    <row r="84" spans="1:5" ht="30">
+      <c r="F83" s="43"/>
+    </row>
+    <row r="84" spans="1:6" ht="29">
       <c r="A84" s="31">
         <v>5</v>
       </c>
@@ -2734,8 +3147,9 @@
         <v>161</v>
       </c>
       <c r="E84" s="32"/>
-    </row>
-    <row r="85" spans="1:5" ht="90">
+      <c r="F84" s="43"/>
+    </row>
+    <row r="85" spans="1:6" ht="72.5">
       <c r="A85" s="31">
         <v>5</v>
       </c>
@@ -2749,8 +3163,9 @@
         <v>162</v>
       </c>
       <c r="E85" s="32"/>
-    </row>
-    <row r="86" spans="1:5" ht="30">
+      <c r="F85" s="43"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.5">
       <c r="A86" s="34">
         <v>6</v>
       </c>
@@ -2765,7 +3180,7 @@
       </c>
       <c r="E86" s="36"/>
     </row>
-    <row r="87" spans="1:5" ht="15">
+    <row r="87" spans="1:6" ht="14.5">
       <c r="A87" s="34">
         <v>6</v>
       </c>
@@ -2780,7 +3195,7 @@
       </c>
       <c r="E87" s="36"/>
     </row>
-    <row r="88" spans="1:5" ht="255">
+    <row r="88" spans="1:6" ht="246.5">
       <c r="A88" s="34">
         <v>6</v>
       </c>
@@ -2797,7 +3212,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45">
+    <row r="89" spans="1:6" ht="29">
       <c r="A89" s="34">
         <v>6</v>
       </c>
@@ -2812,7 +3227,7 @@
       </c>
       <c r="E89" s="36"/>
     </row>
-    <row r="90" spans="1:5" ht="15">
+    <row r="90" spans="1:6" ht="14.5">
       <c r="A90" s="34">
         <v>6</v>
       </c>
@@ -2827,7 +3242,7 @@
       </c>
       <c r="E90" s="36"/>
     </row>
-    <row r="91" spans="1:5" ht="15">
+    <row r="91" spans="1:6" ht="14.5">
       <c r="A91" s="34">
         <v>6</v>
       </c>
@@ -2842,7 +3257,7 @@
       </c>
       <c r="E91" s="36"/>
     </row>
-    <row r="92" spans="1:5" ht="15">
+    <row r="92" spans="1:6" ht="14.5">
       <c r="A92" s="34">
         <v>6</v>
       </c>
@@ -2857,7 +3272,7 @@
       </c>
       <c r="E92" s="36"/>
     </row>
-    <row r="93" spans="1:5" ht="15">
+    <row r="93" spans="1:6" ht="14.5">
       <c r="A93" s="34">
         <v>6</v>
       </c>
@@ -2872,7 +3287,7 @@
       </c>
       <c r="E93" s="36"/>
     </row>
-    <row r="94" spans="1:5" ht="30">
+    <row r="94" spans="1:6" ht="14.5">
       <c r="A94" s="38">
         <v>7</v>
       </c>
@@ -2887,7 +3302,7 @@
       </c>
       <c r="E94" s="39"/>
     </row>
-    <row r="95" spans="1:5" ht="15">
+    <row r="95" spans="1:6" ht="14.5">
       <c r="A95" s="38">
         <v>7</v>
       </c>
@@ -2902,7 +3317,7 @@
       </c>
       <c r="E95" s="39"/>
     </row>
-    <row r="96" spans="1:5" ht="15">
+    <row r="96" spans="1:6" ht="14.5">
       <c r="A96" s="38">
         <v>7</v>
       </c>
@@ -2919,7 +3334,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15">
+    <row r="97" spans="1:5" ht="14.5">
       <c r="A97" s="38">
         <v>7</v>
       </c>
@@ -2934,7 +3349,7 @@
       </c>
       <c r="E97" s="39"/>
     </row>
-    <row r="98" spans="1:5" ht="45">
+    <row r="98" spans="1:5" ht="43.5">
       <c r="A98" s="38">
         <v>7</v>
       </c>
@@ -2951,7 +3366,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="30">
+    <row r="99" spans="1:5" ht="29">
       <c r="A99" s="38">
         <v>7</v>
       </c>
@@ -2966,7 +3381,7 @@
       </c>
       <c r="E99" s="39"/>
     </row>
-    <row r="100" spans="1:5" ht="30">
+    <row r="100" spans="1:5" ht="29">
       <c r="A100" s="38">
         <v>7</v>
       </c>
@@ -2981,7 +3396,7 @@
       </c>
       <c r="E100" s="40"/>
     </row>
-    <row r="101" spans="1:5" ht="105">
+    <row r="101" spans="1:5" ht="87">
       <c r="A101" s="38">
         <v>7</v>
       </c>
@@ -2998,7 +3413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="30">
+    <row r="102" spans="1:5" ht="29">
       <c r="A102" s="38">
         <v>7</v>
       </c>
@@ -3015,7 +3430,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="45">
+    <row r="103" spans="1:5" ht="29">
       <c r="A103" s="38">
         <v>7</v>
       </c>
@@ -3030,7 +3445,7 @@
       </c>
       <c r="E103" s="39"/>
     </row>
-    <row r="104" spans="1:5" ht="60">
+    <row r="104" spans="1:5" ht="43.5">
       <c r="A104" s="38">
         <v>7</v>
       </c>
@@ -3046,7 +3461,8 @@
       <c r="E104" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E104"/>
+  <autoFilter ref="A1:E104" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
